--- a/eflow-rx/build/1.0.0-draft/StructureDefinition-GEM-ERP-LOG-MedicationDispense.xlsx
+++ b/eflow-rx/build/1.0.0-draft/StructureDefinition-GEM-ERP-LOG-MedicationDispense.xlsx
@@ -323,6 +323,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>GEM-ERP-LOG-MedicationDispense.prescriptionId</t>
   </si>
   <si>
@@ -376,9 +379,6 @@
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>GEM-ERP-LOG-MedicationDispense.medication.medicationArzneimittel</t>
@@ -1945,21 +1945,21 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1985,10 +1985,10 @@
         <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2039,7 +2039,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>84</v>
@@ -2059,10 +2059,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2085,13 +2085,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2142,7 +2142,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>84</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2188,13 +2188,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2245,7 +2245,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>84</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2368,10 +2368,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2473,14 +2473,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2493,25 +2493,25 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N10" t="s" s="2">
         <v>94</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>75</v>
@@ -2560,7 +2560,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2569,13 +2569,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2606,7 +2606,7 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>119</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2909,25 +2909,25 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>94</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2976,7 +2976,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2985,13 +2985,13 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -3125,7 +3125,7 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>128</v>
@@ -3333,7 +3333,7 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>133</v>
@@ -3956,7 +3956,7 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>144</v>
@@ -4029,7 +4029,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
@@ -4063,7 +4063,7 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>85</v>
@@ -4481,7 +4481,7 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>163</v>
@@ -4588,7 +4588,7 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>85</v>
@@ -4693,10 +4693,10 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>177</v>
@@ -4798,7 +4798,7 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>85</v>
@@ -4905,7 +4905,7 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>125</v>
@@ -5323,7 +5323,7 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>163</v>
@@ -5430,7 +5430,7 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>85</v>
@@ -5535,10 +5535,10 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>200</v>
@@ -5640,7 +5640,7 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>85</v>
@@ -5747,7 +5747,7 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>125</v>
@@ -6165,7 +6165,7 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>163</v>
@@ -6272,7 +6272,7 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>85</v>
@@ -6377,10 +6377,10 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>211</v>
@@ -6482,7 +6482,7 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>85</v>
@@ -6589,7 +6589,7 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>125</v>
@@ -7007,7 +7007,7 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>163</v>
@@ -7114,7 +7114,7 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>85</v>
@@ -7219,10 +7219,10 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>222</v>
@@ -7324,7 +7324,7 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>85</v>
@@ -7431,7 +7431,7 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>125</v>
@@ -7849,7 +7849,7 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>163</v>
@@ -7956,7 +7956,7 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>85</v>
@@ -8061,10 +8061,10 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>233</v>
@@ -8166,7 +8166,7 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>85</v>
@@ -8273,7 +8273,7 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>125</v>
@@ -8794,7 +8794,7 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>144</v>
@@ -8867,7 +8867,7 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -8901,7 +8901,7 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>85</v>
@@ -9319,7 +9319,7 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>163</v>
@@ -9426,7 +9426,7 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>85</v>
@@ -9531,10 +9531,10 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>251</v>
@@ -9636,7 +9636,7 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>85</v>
@@ -9743,7 +9743,7 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>125</v>
@@ -10161,7 +10161,7 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>163</v>
@@ -10268,7 +10268,7 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>85</v>
@@ -10373,10 +10373,10 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>233</v>
@@ -10478,7 +10478,7 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>85</v>
@@ -10585,7 +10585,7 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>125</v>
@@ -11003,7 +11003,7 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>163</v>
@@ -11110,7 +11110,7 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>85</v>
@@ -11215,10 +11215,10 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>270</v>
@@ -11320,7 +11320,7 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>85</v>
@@ -11427,7 +11427,7 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>125</v>
@@ -11745,7 +11745,7 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L98" t="s" s="2">
         <v>279</v>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -12048,25 +12048,25 @@
         <v>75</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>94</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>75</v>
@@ -12115,7 +12115,7 @@
         <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -12124,13 +12124,13 @@
         <v>77</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -12264,7 +12264,7 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>285</v>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -12569,25 +12569,25 @@
         <v>75</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>94</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>75</v>
@@ -12636,7 +12636,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -12645,13 +12645,13 @@
         <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
@@ -12990,7 +12990,7 @@
         <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>144</v>
@@ -13063,7 +13063,7 @@
         <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>81</v>
@@ -13097,7 +13097,7 @@
         <v>75</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>85</v>
@@ -13515,7 +13515,7 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>163</v>
@@ -13622,7 +13622,7 @@
         <v>75</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>85</v>
@@ -13727,10 +13727,10 @@
         <v>75</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L117" t="s" s="2">
         <v>177</v>
@@ -13832,7 +13832,7 @@
         <v>75</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>85</v>
@@ -13939,7 +13939,7 @@
         <v>75</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>125</v>
@@ -14357,7 +14357,7 @@
         <v>75</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>163</v>
@@ -14464,7 +14464,7 @@
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>85</v>
@@ -14569,10 +14569,10 @@
         <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>200</v>
@@ -14674,7 +14674,7 @@
         <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>85</v>
@@ -14781,7 +14781,7 @@
         <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>125</v>
@@ -15199,7 +15199,7 @@
         <v>75</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>163</v>
@@ -15306,7 +15306,7 @@
         <v>75</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>85</v>
@@ -15411,10 +15411,10 @@
         <v>75</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>211</v>
@@ -15516,7 +15516,7 @@
         <v>75</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>85</v>
@@ -15623,7 +15623,7 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>125</v>
@@ -16041,7 +16041,7 @@
         <v>75</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>163</v>
@@ -16148,7 +16148,7 @@
         <v>75</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>85</v>
@@ -16253,10 +16253,10 @@
         <v>75</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L141" t="s" s="2">
         <v>222</v>
@@ -16358,7 +16358,7 @@
         <v>75</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>85</v>
@@ -16465,7 +16465,7 @@
         <v>75</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K143" t="s" s="2">
         <v>125</v>
@@ -16883,7 +16883,7 @@
         <v>75</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>163</v>
@@ -16990,7 +16990,7 @@
         <v>75</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>85</v>
@@ -17095,10 +17095,10 @@
         <v>75</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L149" t="s" s="2">
         <v>233</v>
@@ -17200,7 +17200,7 @@
         <v>75</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>85</v>
@@ -17307,7 +17307,7 @@
         <v>75</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>125</v>
@@ -17829,7 +17829,7 @@
         <v>75</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L156" t="s" s="2">
         <v>346</v>
@@ -18123,7 +18123,7 @@
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -18136,25 +18136,25 @@
         <v>75</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>94</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>75</v>
@@ -18203,7 +18203,7 @@
         <v>75</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>76</v>
@@ -18212,13 +18212,13 @@
         <v>77</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -19180,7 +19180,7 @@
         <v>75</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L169" t="s" s="2">
         <v>371</v>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -19485,25 +19485,25 @@
         <v>75</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>94</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>75</v>
@@ -19552,7 +19552,7 @@
         <v>75</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>76</v>
@@ -19561,13 +19561,13 @@
         <v>77</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
